--- a/resources/template/template.xlsx
+++ b/resources/template/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>${sender} - ${title}</t>
   </si>
@@ -40,6 +40,9 @@
     <t>工作内容</t>
   </si>
   <si>
+    <t>问题</t>
+  </si>
+  <si>
     <t>完成度</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>${day1}</t>
   </si>
   <si>
+    <t>${problem1}</t>
+  </si>
+  <si>
     <t>${percent1}</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>${day2}</t>
   </si>
   <si>
+    <t>${problem2}</t>
+  </si>
+  <si>
     <t>${percent2}</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t>${day3}</t>
   </si>
   <si>
+    <t>${problem3}</t>
+  </si>
+  <si>
     <t>${percent3}</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t>${day4}</t>
   </si>
   <si>
+    <t>${problem4}</t>
+  </si>
+  <si>
     <t>${percent4}</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t>${day5}</t>
   </si>
   <si>
+    <t>${problem5}</t>
+  </si>
+  <si>
     <t>${percent5}</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t>${day6}</t>
   </si>
   <si>
+    <t>${problem6}</t>
+  </si>
+  <si>
     <t>${percent6}</t>
   </si>
   <si>
@@ -101,6 +122,9 @@
   </si>
   <si>
     <t>${day7}</t>
+  </si>
+  <si>
+    <t>${problem7}</t>
   </si>
   <si>
     <t>${percent7}</t>
@@ -111,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -172,7 +196,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,68 +310,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,45 +331,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -353,186 +377,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -582,6 +606,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -597,6 +632,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color theme="1" tint="0.5"/>
@@ -609,8 +681,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,46 +746,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,21 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -711,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,137 +795,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,46 +953,82 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H11" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1255,10 +1363,10 @@
     <col min="4" max="4" width="13.5333333333333" customWidth="1"/>
     <col min="7" max="7" width="8.025" customWidth="1"/>
     <col min="8" max="8" width="13.9916666666667" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37" customHeight="1" spans="1:12">
+    <row r="1" ht="37" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,9 +1380,10 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="18"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="26"/>
     </row>
-    <row r="2" ht="29" customHeight="1" spans="1:12">
+    <row r="2" ht="29" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1396,7 @@
       </c>
       <c r="E2" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>43806</v>
+        <v>43913</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1296,13 +1405,14 @@
       </c>
       <c r="I2" s="5">
         <f ca="1">TODAY()</f>
-        <v>43810</v>
+        <v>43917</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="18"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="26"/>
     </row>
-    <row r="3" ht="36" customHeight="1" spans="1:11">
+    <row r="3" ht="36" customHeight="1" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1316,8 +1426,9 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
-    <row r="4" ht="39" customHeight="1" spans="1:12">
+    <row r="4" ht="39" customHeight="1" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1325,175 +1436,207 @@
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="26"/>
     </row>
-    <row r="5" ht="29" customHeight="1" spans="1:11">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" ht="29" customHeight="1" spans="1:12">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="19" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:11">
-      <c r="A6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="20" t="s">
+    <row r="6" ht="30" customHeight="1" spans="1:12">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:11">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="19" t="s">
-        <v>17</v>
+    <row r="7" ht="30" customHeight="1" spans="1:12">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" ht="32" customHeight="1" spans="1:17">
-      <c r="A8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="22"/>
+    <row r="8" ht="32" customHeight="1" spans="1:18">
+      <c r="A8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="34"/>
     </row>
-    <row r="9" ht="31" customHeight="1" spans="1:11">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="19" t="s">
-        <v>23</v>
+    <row r="9" ht="31" customHeight="1" spans="1:12">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" ht="29" customHeight="1" spans="1:11">
-      <c r="A10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="20" t="s">
-        <v>26</v>
+    <row r="10" ht="29" customHeight="1" spans="1:12">
+      <c r="A10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="11" ht="28" customHeight="1" spans="1:11">
-      <c r="A11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="21" t="s">
-        <v>29</v>
+    <row r="11" ht="28" customHeight="1" spans="1:12">
+      <c r="A11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="29">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:K5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:K7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
